--- a/Proyecto1/FSCM2-C-ESTADOS.xlsx
+++ b/Proyecto1/FSCM2-C-ESTADOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21741D93-B34B-46C6-B329-59984C9B38C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F5952-08B0-43BC-B780-80E36A0F8D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFE4AFCE-4077-40CD-969D-32C5DBB5655A}"/>
   </bookViews>
@@ -85,15 +85,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,13 +113,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,47 +457,47 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
